--- a/wilt_chamberlain_per_game_averages.xlsx
+++ b/wilt_chamberlain_per_game_averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="77">
   <si>
     <t>seas_id</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>PHW</t>
+  </si>
+  <si>
+    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>1972-73</t>
@@ -791,6 +794,12 @@
       <c r="AD2">
         <v>4.5</v>
       </c>
+      <c r="AE2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>60</v>
+      </c>
       <c r="AH2">
         <v>2.3</v>
       </c>
@@ -798,13 +807,13 @@
         <v>13.2</v>
       </c>
       <c r="AJ2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -877,6 +886,12 @@
       <c r="AD3">
         <v>4</v>
       </c>
+      <c r="AE3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>60</v>
+      </c>
       <c r="AH3">
         <v>2.4</v>
       </c>
@@ -884,13 +899,13 @@
         <v>14.8</v>
       </c>
       <c r="AJ3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -963,6 +978,12 @@
       <c r="AD4">
         <v>4.3</v>
       </c>
+      <c r="AE4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>60</v>
+      </c>
       <c r="AH4">
         <v>2.1</v>
       </c>
@@ -970,13 +991,13 @@
         <v>20.7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1049,6 +1070,12 @@
       <c r="AD5">
         <v>4.1</v>
       </c>
+      <c r="AE5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>60</v>
+      </c>
       <c r="AH5">
         <v>2.6</v>
       </c>
@@ -1056,13 +1083,13 @@
         <v>27.3</v>
       </c>
       <c r="AJ5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1135,6 +1162,12 @@
       <c r="AD6">
         <v>4.5</v>
       </c>
+      <c r="AE6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>60</v>
+      </c>
       <c r="AH6">
         <v>1.8</v>
       </c>
@@ -1142,13 +1175,13 @@
         <v>20.5</v>
       </c>
       <c r="AJ6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1221,6 +1254,12 @@
       <c r="AD7">
         <v>8.6</v>
       </c>
+      <c r="AE7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>60</v>
+      </c>
       <c r="AH7">
         <v>2</v>
       </c>
@@ -1228,13 +1267,13 @@
         <v>24.3</v>
       </c>
       <c r="AJ7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1307,6 +1346,12 @@
       <c r="AD8">
         <v>7.8</v>
       </c>
+      <c r="AE8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>60</v>
+      </c>
       <c r="AH8">
         <v>1.8</v>
       </c>
@@ -1314,13 +1359,13 @@
         <v>24.1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1393,6 +1438,12 @@
       <c r="AD9">
         <v>5.2</v>
       </c>
+      <c r="AE9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>60</v>
+      </c>
       <c r="AH9">
         <v>2.2</v>
       </c>
@@ -1400,13 +1451,13 @@
         <v>33.5</v>
       </c>
       <c r="AJ9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1479,6 +1530,12 @@
       <c r="AD10">
         <v>3.4</v>
       </c>
+      <c r="AE10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>60</v>
+      </c>
       <c r="AH10">
         <v>2</v>
       </c>
@@ -1486,13 +1543,13 @@
         <v>34.7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1565,6 +1622,12 @@
       <c r="AD11">
         <v>3.1</v>
       </c>
+      <c r="AE11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>60</v>
+      </c>
       <c r="AH11">
         <v>2</v>
       </c>
@@ -1572,13 +1635,13 @@
         <v>38.9</v>
       </c>
       <c r="AJ11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1651,6 +1714,12 @@
       <c r="AD12">
         <v>3.8</v>
       </c>
+      <c r="AE12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>60</v>
+      </c>
       <c r="AH12">
         <v>2</v>
       </c>
@@ -1658,13 +1727,13 @@
         <v>30.1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1737,6 +1806,12 @@
       <c r="AD13">
         <v>5</v>
       </c>
+      <c r="AE13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>60</v>
+      </c>
       <c r="AH13">
         <v>2.3</v>
       </c>
@@ -1744,13 +1819,13 @@
         <v>36.9</v>
       </c>
       <c r="AJ13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -1823,6 +1898,12 @@
       <c r="AD14">
         <v>3.4</v>
       </c>
+      <c r="AE14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>60</v>
+      </c>
       <c r="AH14">
         <v>1.7</v>
       </c>
@@ -1830,13 +1911,13 @@
         <v>44.8</v>
       </c>
       <c r="AJ14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -1909,6 +1990,12 @@
       <c r="AD15">
         <v>2.4</v>
       </c>
+      <c r="AE15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>60</v>
+      </c>
       <c r="AH15">
         <v>1.5</v>
       </c>
@@ -1916,13 +2003,13 @@
         <v>50.4</v>
       </c>
       <c r="AJ15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -1995,6 +2082,12 @@
       <c r="AD16">
         <v>1.9</v>
       </c>
+      <c r="AE16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>60</v>
+      </c>
       <c r="AH16">
         <v>1.6</v>
       </c>
@@ -2002,13 +2095,13 @@
         <v>38.4</v>
       </c>
       <c r="AJ16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -2081,6 +2174,12 @@
       <c r="AD17">
         <v>2.3</v>
       </c>
+      <c r="AE17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>60</v>
+      </c>
       <c r="AH17">
         <v>2.1</v>
       </c>
@@ -2088,13 +2187,13 @@
         <v>37.6</v>
       </c>
       <c r="AJ17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/wilt_chamberlain_per_game_averages.xlsx
+++ b/wilt_chamberlain_per_game_averages.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="78">
   <si>
     <t>seas_id</t>
   </si>
   <si>
-    <t>year</t>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>player_id</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>1973</t>
@@ -602,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,22 +726,28 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2">
         <v>5645</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>699</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E2">
+        <v>1937</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>36</v>
@@ -747,10 +756,10 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2">
         <v>82</v>
@@ -795,10 +804,10 @@
         <v>4.5</v>
       </c>
       <c r="AE2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH2">
         <v>2.3</v>
@@ -807,30 +816,36 @@
         <v>13.2</v>
       </c>
       <c r="AJ2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM2">
+        <v>1973</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>5218</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>699</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>1937</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3">
         <v>35</v>
@@ -839,10 +854,10 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3">
         <v>82</v>
@@ -887,10 +902,10 @@
         <v>4</v>
       </c>
       <c r="AE3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH3">
         <v>2.4</v>
@@ -899,30 +914,36 @@
         <v>14.8</v>
       </c>
       <c r="AJ3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM3">
+        <v>1972</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>4757</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>699</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>1937</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>34</v>
@@ -931,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>82</v>
@@ -979,10 +1000,10 @@
         <v>4.3</v>
       </c>
       <c r="AE4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH4">
         <v>2.1</v>
@@ -991,30 +1012,36 @@
         <v>20.7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM4">
+        <v>1971</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>4312</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>699</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>1937</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -1023,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -1071,10 +1098,10 @@
         <v>4.1</v>
       </c>
       <c r="AE5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH5">
         <v>2.6</v>
@@ -1083,30 +1110,36 @@
         <v>27.3</v>
       </c>
       <c r="AJ5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM5">
+        <v>1970</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>3901</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>699</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>1937</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>32</v>
@@ -1115,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6">
         <v>81</v>
@@ -1163,10 +1196,10 @@
         <v>4.5</v>
       </c>
       <c r="AE6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH6">
         <v>1.8</v>
@@ -1175,30 +1208,36 @@
         <v>20.5</v>
       </c>
       <c r="AJ6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM6">
+        <v>1969</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>3485</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>699</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>1937</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>31</v>
@@ -1207,10 +1246,10 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>82</v>
@@ -1255,10 +1294,10 @@
         <v>8.6</v>
       </c>
       <c r="AE7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH7">
         <v>2</v>
@@ -1267,30 +1306,36 @@
         <v>24.3</v>
       </c>
       <c r="AJ7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM7">
+        <v>1968</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>3118</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>699</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>1937</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>30</v>
@@ -1299,10 +1344,10 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
         <v>81</v>
@@ -1347,10 +1392,10 @@
         <v>7.8</v>
       </c>
       <c r="AE8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH8">
         <v>1.8</v>
@@ -1359,30 +1404,36 @@
         <v>24.1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM8">
+        <v>1967</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>2984</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>699</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>1937</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>29</v>
@@ -1391,10 +1442,10 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
         <v>79</v>
@@ -1439,10 +1490,10 @@
         <v>5.2</v>
       </c>
       <c r="AE9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH9">
         <v>2.2</v>
@@ -1451,30 +1502,36 @@
         <v>33.5</v>
       </c>
       <c r="AJ9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM9">
+        <v>1966</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10">
         <v>2848</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>699</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>1937</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -1483,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>73</v>
@@ -1531,10 +1588,10 @@
         <v>3.4</v>
       </c>
       <c r="AE10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH10">
         <v>2</v>
@@ -1543,30 +1600,36 @@
         <v>34.7</v>
       </c>
       <c r="AJ10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM10">
+        <v>1965</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>2849</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>699</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>1937</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>28</v>
@@ -1575,10 +1638,10 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>38</v>
@@ -1623,10 +1686,10 @@
         <v>3.1</v>
       </c>
       <c r="AE11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH11">
         <v>2</v>
@@ -1635,30 +1698,36 @@
         <v>38.9</v>
       </c>
       <c r="AJ11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM11">
+        <v>1965</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>2850</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>699</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>1937</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>28</v>
@@ -1667,10 +1736,10 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
         <v>35</v>
@@ -1715,10 +1784,10 @@
         <v>3.8</v>
       </c>
       <c r="AE12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH12">
         <v>2</v>
@@ -1727,30 +1796,36 @@
         <v>30.1</v>
       </c>
       <c r="AJ12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM12">
+        <v>1965</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>2718</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>699</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>1937</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>27</v>
@@ -1759,10 +1834,10 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13">
         <v>80</v>
@@ -1807,10 +1882,10 @@
         <v>5</v>
       </c>
       <c r="AE13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH13">
         <v>2.3</v>
@@ -1819,30 +1894,36 @@
         <v>36.9</v>
       </c>
       <c r="AJ13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM13">
+        <v>1964</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>2580</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>699</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>1937</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>26</v>
@@ -1851,10 +1932,10 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14">
         <v>80</v>
@@ -1899,10 +1980,10 @@
         <v>3.4</v>
       </c>
       <c r="AE14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH14">
         <v>1.7</v>
@@ -1911,30 +1992,36 @@
         <v>44.8</v>
       </c>
       <c r="AJ14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM14">
+        <v>1963</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="A15">
         <v>2445</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>699</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>1937</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15">
         <v>25</v>
@@ -1943,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -1991,10 +2078,10 @@
         <v>2.4</v>
       </c>
       <c r="AE15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH15">
         <v>1.5</v>
@@ -2003,30 +2090,36 @@
         <v>50.4</v>
       </c>
       <c r="AJ15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM15">
+        <v>1962</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39">
       <c r="A16">
         <v>2313</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>699</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>1937</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>24</v>
@@ -2035,10 +2128,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16">
         <v>79</v>
@@ -2083,10 +2176,10 @@
         <v>1.9</v>
       </c>
       <c r="AE16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH16">
         <v>1.6</v>
@@ -2095,30 +2188,36 @@
         <v>38.4</v>
       </c>
       <c r="AJ16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM16">
+        <v>1961</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17">
         <v>2209</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>699</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>1937</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17">
         <v>23</v>
@@ -2127,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17">
         <v>72</v>
@@ -2175,10 +2274,10 @@
         <v>2.3</v>
       </c>
       <c r="AE17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH17">
         <v>2.1</v>
@@ -2187,13 +2286,16 @@
         <v>37.6</v>
       </c>
       <c r="AJ17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AM17">
+        <v>1960</v>
       </c>
     </row>
   </sheetData>

--- a/wilt_chamberlain_per_game_averages.xlsx
+++ b/wilt_chamberlain_per_game_averages.xlsx
@@ -744,13 +744,13 @@
         <v>53</v>
       </c>
       <c r="E2">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -842,13 +842,13 @@
         <v>53</v>
       </c>
       <c r="E3">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -940,13 +940,13 @@
         <v>53</v>
       </c>
       <c r="E4">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -1038,13 +1038,13 @@
         <v>53</v>
       </c>
       <c r="E5">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -1136,13 +1136,13 @@
         <v>53</v>
       </c>
       <c r="E6">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -1234,13 +1234,13 @@
         <v>53</v>
       </c>
       <c r="E7">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1332,13 +1332,13 @@
         <v>53</v>
       </c>
       <c r="E8">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -1430,13 +1430,13 @@
         <v>53</v>
       </c>
       <c r="E9">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -1528,13 +1528,13 @@
         <v>53</v>
       </c>
       <c r="E10">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -1626,13 +1626,13 @@
         <v>53</v>
       </c>
       <c r="E11">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1724,13 +1724,13 @@
         <v>53</v>
       </c>
       <c r="E12">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1822,13 +1822,13 @@
         <v>53</v>
       </c>
       <c r="E13">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1920,13 +1920,13 @@
         <v>53</v>
       </c>
       <c r="E14">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -2018,13 +2018,13 @@
         <v>53</v>
       </c>
       <c r="E15">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2116,13 +2116,13 @@
         <v>53</v>
       </c>
       <c r="E16">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2214,13 +2214,13 @@
         <v>53</v>
       </c>
       <c r="E17">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>1</v>

--- a/wilt_chamberlain_per_game_averages.xlsx
+++ b/wilt_chamberlain_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id</t>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year</t>
+    <t>birth_year_x</t>
   </si>
   <si>
     <t>pos</t>

--- a/wilt_chamberlain_per_game_averages.xlsx
+++ b/wilt_chamberlain_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id_x</t>
+    <t>player_id</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year_x</t>
+    <t>birth_year</t>
   </si>
   <si>
     <t>pos</t>
@@ -133,48 +133,48 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
     <t>1973</t>
   </si>
   <si>
-    <t>1972</t>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1968</t>
   </si>
   <si>
     <t>1971</t>
   </si>
   <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
     <t>Wilt Chamberlain</t>
   </si>
   <si>
@@ -184,64 +184,64 @@
     <t>NBA</t>
   </si>
   <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>SFW</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
-    <t>PHI</t>
-  </si>
-  <si>
     <t>TOT</t>
   </si>
   <si>
-    <t>SFW</t>
-  </si>
-  <si>
     <t>PHW</t>
   </si>
   <si>
     <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
+    <t>1964-65</t>
+  </si>
+  <si>
+    <t>1971-72</t>
+  </si>
+  <si>
+    <t>1969-70</t>
+  </si>
+  <si>
+    <t>1963-64</t>
+  </si>
+  <si>
     <t>1972-73</t>
   </si>
   <si>
-    <t>1971-72</t>
+    <t>1968-69</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
+    <t>1960-62</t>
+  </si>
+  <si>
+    <t>1960-61</t>
+  </si>
+  <si>
+    <t>1965-66</t>
+  </si>
+  <si>
+    <t>1966-67</t>
+  </si>
+  <si>
+    <t>1962-63</t>
+  </si>
+  <si>
+    <t>1967-68</t>
   </si>
   <si>
     <t>1970-71</t>
-  </si>
-  <si>
-    <t>1969-70</t>
-  </si>
-  <si>
-    <t>1968-69</t>
-  </si>
-  <si>
-    <t>1967-68</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
-    <t>1965-66</t>
-  </si>
-  <si>
-    <t>1964-65</t>
-  </si>
-  <si>
-    <t>1963-64</t>
-  </si>
-  <si>
-    <t>1962-63</t>
-  </si>
-  <si>
-    <t>1960-62</t>
-  </si>
-  <si>
-    <t>1960-61</t>
-  </si>
-  <si>
-    <t>1959-60</t>
   </si>
   <si>
     <t>Yes</t>
@@ -732,13 +732,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>5645</v>
+        <v>2850</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -750,10 +750,10 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -762,46 +762,46 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="M2">
-        <v>43.2</v>
+        <v>44.5</v>
       </c>
       <c r="N2">
-        <v>5.2</v>
+        <v>12.2</v>
       </c>
       <c r="O2">
-        <v>7.1</v>
+        <v>23.1</v>
       </c>
       <c r="P2">
-        <v>0.727</v>
+        <v>0.528</v>
       </c>
       <c r="T2">
-        <v>5.2</v>
+        <v>12.2</v>
       </c>
       <c r="U2">
-        <v>7.1</v>
+        <v>23.1</v>
       </c>
       <c r="V2">
-        <v>0.727</v>
+        <v>0.528</v>
       </c>
       <c r="W2">
-        <v>0.727</v>
+        <v>0.528</v>
       </c>
       <c r="X2">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y2">
-        <v>5.5</v>
+        <v>10.9</v>
       </c>
       <c r="Z2">
-        <v>0.51</v>
+        <v>0.526</v>
       </c>
       <c r="AC2">
-        <v>18.6</v>
+        <v>22.3</v>
       </c>
       <c r="AD2">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AE2" t="s">
         <v>61</v>
@@ -810,10 +810,10 @@
         <v>61</v>
       </c>
       <c r="AH2">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AI2">
-        <v>13.2</v>
+        <v>30.1</v>
       </c>
       <c r="AJ2" t="s">
         <v>62</v>
@@ -825,18 +825,18 @@
         <v>77</v>
       </c>
       <c r="AM2">
-        <v>1973</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>5218</v>
+        <v>2849</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -848,58 +848,58 @@
         <v>54</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="M3">
-        <v>42.3</v>
+        <v>45.9</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>16.7</v>
       </c>
       <c r="O3">
-        <v>9.300000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="P3">
-        <v>0.649</v>
+        <v>0.499</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>16.7</v>
       </c>
       <c r="U3">
-        <v>9.300000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="V3">
-        <v>0.649</v>
+        <v>0.499</v>
       </c>
       <c r="W3">
-        <v>0.649</v>
+        <v>0.499</v>
       </c>
       <c r="X3">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y3">
-        <v>6.4</v>
+        <v>13.2</v>
       </c>
       <c r="Z3">
-        <v>0.422</v>
+        <v>0.416</v>
       </c>
       <c r="AC3">
-        <v>19.2</v>
+        <v>23.5</v>
       </c>
       <c r="AD3">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AE3" t="s">
         <v>61</v>
@@ -908,13 +908,13 @@
         <v>61</v>
       </c>
       <c r="AH3">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI3">
-        <v>14.8</v>
+        <v>38.9</v>
       </c>
       <c r="AJ3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s">
         <v>76</v>
@@ -923,18 +923,18 @@
         <v>77</v>
       </c>
       <c r="AM3">
-        <v>1972</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>4757</v>
+        <v>5218</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
@@ -946,58 +946,58 @@
         <v>54</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>82</v>
       </c>
       <c r="M4">
-        <v>44.3</v>
+        <v>42.3</v>
       </c>
       <c r="N4">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>15</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P4">
-        <v>0.545</v>
+        <v>0.649</v>
       </c>
       <c r="T4">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>15</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="V4">
-        <v>0.545</v>
+        <v>0.649</v>
       </c>
       <c r="W4">
-        <v>0.545</v>
+        <v>0.649</v>
       </c>
       <c r="X4">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="Y4">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="Z4">
-        <v>0.538</v>
+        <v>0.422</v>
       </c>
       <c r="AC4">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="AD4">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="s">
         <v>61</v>
@@ -1006,13 +1006,13 @@
         <v>61</v>
       </c>
       <c r="AH4">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AI4">
-        <v>20.7</v>
+        <v>14.8</v>
       </c>
       <c r="AJ4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s">
         <v>76</v>
@@ -1021,7 +1021,7 @@
         <v>77</v>
       </c>
       <c r="AM4">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1029,10 +1029,10 @@
         <v>4312</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -1053,7 +1053,7 @@
         <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -1110,7 +1110,7 @@
         <v>27.3</v>
       </c>
       <c r="AJ5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s">
         <v>76</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>3901</v>
+        <v>2718</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -1142,58 +1142,58 @@
         <v>54</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6">
-        <v>45.3</v>
+        <v>46.1</v>
       </c>
       <c r="N6">
-        <v>7.9</v>
+        <v>15.1</v>
       </c>
       <c r="O6">
-        <v>13.6</v>
+        <v>28.7</v>
       </c>
       <c r="P6">
-        <v>0.583</v>
+        <v>0.524</v>
       </c>
       <c r="T6">
-        <v>7.9</v>
+        <v>15.1</v>
       </c>
       <c r="U6">
-        <v>13.6</v>
+        <v>28.7</v>
       </c>
       <c r="V6">
-        <v>0.583</v>
+        <v>0.524</v>
       </c>
       <c r="W6">
-        <v>0.583</v>
+        <v>0.524</v>
       </c>
       <c r="X6">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y6">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
       <c r="Z6">
-        <v>0.446</v>
+        <v>0.531</v>
       </c>
       <c r="AC6">
-        <v>21.1</v>
+        <v>22.3</v>
       </c>
       <c r="AD6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="s">
         <v>61</v>
@@ -1202,13 +1202,13 @@
         <v>61</v>
       </c>
       <c r="AH6">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AI6">
-        <v>20.5</v>
+        <v>36.9</v>
       </c>
       <c r="AJ6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="s">
         <v>76</v>
@@ -1217,18 +1217,18 @@
         <v>77</v>
       </c>
       <c r="AM6">
-        <v>1969</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>3485</v>
+        <v>2848</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -1240,58 +1240,58 @@
         <v>54</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M7">
-        <v>46.8</v>
+        <v>45.2</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>14.6</v>
       </c>
       <c r="O7">
-        <v>16.8</v>
+        <v>28.5</v>
       </c>
       <c r="P7">
-        <v>0.595</v>
+        <v>0.51</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>14.6</v>
       </c>
       <c r="U7">
-        <v>16.8</v>
+        <v>28.5</v>
       </c>
       <c r="V7">
-        <v>0.595</v>
+        <v>0.51</v>
       </c>
       <c r="W7">
-        <v>0.595</v>
+        <v>0.51</v>
       </c>
       <c r="X7">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="Y7">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="Z7">
-        <v>0.38</v>
+        <v>0.464</v>
       </c>
       <c r="AC7">
-        <v>23.8</v>
+        <v>22.9</v>
       </c>
       <c r="AD7">
-        <v>8.6</v>
+        <v>3.4</v>
       </c>
       <c r="AE7" t="s">
         <v>61</v>
@@ -1303,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="AI7">
-        <v>24.3</v>
+        <v>34.7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s">
         <v>76</v>
@@ -1315,18 +1315,18 @@
         <v>77</v>
       </c>
       <c r="AM7">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>3118</v>
+        <v>5645</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -1338,58 +1338,58 @@
         <v>54</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8">
-        <v>45.5</v>
+        <v>43.2</v>
       </c>
       <c r="N8">
-        <v>9.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="O8">
-        <v>14.2</v>
+        <v>7.1</v>
       </c>
       <c r="P8">
-        <v>0.6830000000000001</v>
+        <v>0.727</v>
       </c>
       <c r="T8">
-        <v>9.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="U8">
-        <v>14.2</v>
+        <v>7.1</v>
       </c>
       <c r="V8">
-        <v>0.6830000000000001</v>
+        <v>0.727</v>
       </c>
       <c r="W8">
-        <v>0.6830000000000001</v>
+        <v>0.727</v>
       </c>
       <c r="X8">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="Y8">
-        <v>10.8</v>
+        <v>5.5</v>
       </c>
       <c r="Z8">
-        <v>0.441</v>
+        <v>0.51</v>
       </c>
       <c r="AC8">
-        <v>24.2</v>
+        <v>18.6</v>
       </c>
       <c r="AD8">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="AE8" t="s">
         <v>61</v>
@@ -1398,13 +1398,13 @@
         <v>61</v>
       </c>
       <c r="AH8">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AI8">
-        <v>24.1</v>
+        <v>13.2</v>
       </c>
       <c r="AJ8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK8" t="s">
         <v>76</v>
@@ -1413,18 +1413,18 @@
         <v>77</v>
       </c>
       <c r="AM8">
-        <v>1967</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>2984</v>
+        <v>3901</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
@@ -1436,58 +1436,58 @@
         <v>54</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M9">
-        <v>47.3</v>
+        <v>45.3</v>
       </c>
       <c r="N9">
+        <v>7.9</v>
+      </c>
+      <c r="O9">
         <v>13.6</v>
       </c>
-      <c r="O9">
-        <v>25.2</v>
-      </c>
       <c r="P9">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="T9">
+        <v>7.9</v>
+      </c>
+      <c r="U9">
         <v>13.6</v>
       </c>
-      <c r="U9">
-        <v>25.2</v>
-      </c>
       <c r="V9">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="W9">
-        <v>0.54</v>
+        <v>0.583</v>
       </c>
       <c r="X9">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="Y9">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="Z9">
-        <v>0.513</v>
+        <v>0.446</v>
       </c>
       <c r="AC9">
-        <v>24.6</v>
+        <v>21.1</v>
       </c>
       <c r="AD9">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="AE9" t="s">
         <v>61</v>
@@ -1496,13 +1496,13 @@
         <v>61</v>
       </c>
       <c r="AH9">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AI9">
-        <v>33.5</v>
+        <v>20.5</v>
       </c>
       <c r="AJ9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK9" t="s">
         <v>76</v>
@@ -1511,18 +1511,18 @@
         <v>77</v>
       </c>
       <c r="AM9">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>2848</v>
+        <v>2209</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -1534,58 +1534,58 @@
         <v>54</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M10">
-        <v>45.2</v>
+        <v>46.4</v>
       </c>
       <c r="N10">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="O10">
-        <v>28.5</v>
+        <v>32.1</v>
       </c>
       <c r="P10">
-        <v>0.51</v>
+        <v>0.461</v>
       </c>
       <c r="T10">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="U10">
-        <v>28.5</v>
+        <v>32.1</v>
       </c>
       <c r="V10">
-        <v>0.51</v>
+        <v>0.461</v>
       </c>
       <c r="W10">
-        <v>0.51</v>
+        <v>0.461</v>
       </c>
       <c r="X10">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="Y10">
-        <v>12.1</v>
+        <v>13.8</v>
       </c>
       <c r="Z10">
-        <v>0.464</v>
+        <v>0.582</v>
       </c>
       <c r="AC10">
-        <v>22.9</v>
+        <v>27</v>
       </c>
       <c r="AD10">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AE10" t="s">
         <v>61</v>
@@ -1594,13 +1594,13 @@
         <v>61</v>
       </c>
       <c r="AH10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI10">
-        <v>34.7</v>
+        <v>37.6</v>
       </c>
       <c r="AJ10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AK10" t="s">
         <v>76</v>
@@ -1609,18 +1609,18 @@
         <v>77</v>
       </c>
       <c r="AM10">
-        <v>1965</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>2849</v>
+        <v>2445</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -1632,58 +1632,58 @@
         <v>54</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
         <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="M11">
-        <v>45.9</v>
+        <v>48.5</v>
       </c>
       <c r="N11">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="O11">
-        <v>33.6</v>
+        <v>39.5</v>
       </c>
       <c r="P11">
-        <v>0.499</v>
+        <v>0.506</v>
       </c>
       <c r="T11">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="U11">
-        <v>33.6</v>
+        <v>39.5</v>
       </c>
       <c r="V11">
-        <v>0.499</v>
+        <v>0.506</v>
       </c>
       <c r="W11">
-        <v>0.499</v>
+        <v>0.506</v>
       </c>
       <c r="X11">
-        <v>5.5</v>
+        <v>10.4</v>
       </c>
       <c r="Y11">
-        <v>13.2</v>
+        <v>17</v>
       </c>
       <c r="Z11">
-        <v>0.416</v>
+        <v>0.613</v>
       </c>
       <c r="AC11">
-        <v>23.5</v>
+        <v>25.7</v>
       </c>
       <c r="AD11">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AE11" t="s">
         <v>61</v>
@@ -1692,13 +1692,13 @@
         <v>61</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AI11">
-        <v>38.9</v>
+        <v>50.4</v>
       </c>
       <c r="AJ11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK11" t="s">
         <v>76</v>
@@ -1707,18 +1707,18 @@
         <v>77</v>
       </c>
       <c r="AM11">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>2850</v>
+        <v>2313</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -1730,58 +1730,58 @@
         <v>54</v>
       </c>
       <c r="G12">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="M12">
-        <v>44.5</v>
+        <v>47.8</v>
       </c>
       <c r="N12">
-        <v>12.2</v>
+        <v>15.8</v>
       </c>
       <c r="O12">
-        <v>23.1</v>
+        <v>31.1</v>
       </c>
       <c r="P12">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="T12">
-        <v>12.2</v>
+        <v>15.8</v>
       </c>
       <c r="U12">
-        <v>23.1</v>
+        <v>31.1</v>
       </c>
       <c r="V12">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="W12">
-        <v>0.528</v>
+        <v>0.509</v>
       </c>
       <c r="X12">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="Y12">
-        <v>10.9</v>
+        <v>13.3</v>
       </c>
       <c r="Z12">
-        <v>0.526</v>
+        <v>0.504</v>
       </c>
       <c r="AC12">
-        <v>22.3</v>
+        <v>27.2</v>
       </c>
       <c r="AD12">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="AE12" t="s">
         <v>61</v>
@@ -1790,10 +1790,10 @@
         <v>61</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AI12">
-        <v>30.1</v>
+        <v>38.4</v>
       </c>
       <c r="AJ12" t="s">
         <v>70</v>
@@ -1805,18 +1805,18 @@
         <v>77</v>
       </c>
       <c r="AM12">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>2718</v>
+        <v>2984</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -1828,58 +1828,58 @@
         <v>54</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
         <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M13">
-        <v>46.1</v>
+        <v>47.3</v>
       </c>
       <c r="N13">
-        <v>15.1</v>
+        <v>13.6</v>
       </c>
       <c r="O13">
-        <v>28.7</v>
+        <v>25.2</v>
       </c>
       <c r="P13">
-        <v>0.524</v>
+        <v>0.54</v>
       </c>
       <c r="T13">
-        <v>15.1</v>
+        <v>13.6</v>
       </c>
       <c r="U13">
-        <v>28.7</v>
+        <v>25.2</v>
       </c>
       <c r="V13">
-        <v>0.524</v>
+        <v>0.54</v>
       </c>
       <c r="W13">
-        <v>0.524</v>
+        <v>0.54</v>
       </c>
       <c r="X13">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="Y13">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="Z13">
-        <v>0.531</v>
+        <v>0.513</v>
       </c>
       <c r="AC13">
-        <v>22.3</v>
+        <v>24.6</v>
       </c>
       <c r="AD13">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AE13" t="s">
         <v>61</v>
@@ -1888,10 +1888,10 @@
         <v>61</v>
       </c>
       <c r="AH13">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AI13">
-        <v>36.9</v>
+        <v>33.5</v>
       </c>
       <c r="AJ13" t="s">
         <v>71</v>
@@ -1903,18 +1903,18 @@
         <v>77</v>
       </c>
       <c r="AM13">
-        <v>1964</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>2580</v>
+        <v>3118</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -1926,58 +1926,58 @@
         <v>54</v>
       </c>
       <c r="G14">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14">
-        <v>47.6</v>
+        <v>45.5</v>
       </c>
       <c r="N14">
-        <v>18.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O14">
-        <v>34.6</v>
+        <v>14.2</v>
       </c>
       <c r="P14">
-        <v>0.528</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="T14">
-        <v>18.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="U14">
-        <v>34.6</v>
+        <v>14.2</v>
       </c>
       <c r="V14">
-        <v>0.528</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="W14">
-        <v>0.528</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="X14">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="Y14">
-        <v>13.9</v>
+        <v>10.8</v>
       </c>
       <c r="Z14">
-        <v>0.593</v>
+        <v>0.441</v>
       </c>
       <c r="AC14">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="AD14">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE14" t="s">
         <v>61</v>
@@ -1986,10 +1986,10 @@
         <v>61</v>
       </c>
       <c r="AH14">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AI14">
-        <v>44.8</v>
+        <v>24.1</v>
       </c>
       <c r="AJ14" t="s">
         <v>72</v>
@@ -2001,18 +2001,18 @@
         <v>77</v>
       </c>
       <c r="AM14">
-        <v>1963</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>2445</v>
+        <v>2580</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="C15">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
@@ -2024,58 +2024,58 @@
         <v>54</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
         <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15">
         <v>80</v>
       </c>
       <c r="M15">
-        <v>48.5</v>
+        <v>47.6</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>18.3</v>
       </c>
       <c r="O15">
-        <v>39.5</v>
+        <v>34.6</v>
       </c>
       <c r="P15">
-        <v>0.506</v>
+        <v>0.528</v>
       </c>
       <c r="T15">
-        <v>20</v>
+        <v>18.3</v>
       </c>
       <c r="U15">
-        <v>39.5</v>
+        <v>34.6</v>
       </c>
       <c r="V15">
-        <v>0.506</v>
+        <v>0.528</v>
       </c>
       <c r="W15">
-        <v>0.506</v>
+        <v>0.528</v>
       </c>
       <c r="X15">
-        <v>10.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y15">
-        <v>17</v>
+        <v>13.9</v>
       </c>
       <c r="Z15">
-        <v>0.613</v>
+        <v>0.593</v>
       </c>
       <c r="AC15">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="AD15">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="AE15" t="s">
         <v>61</v>
@@ -2084,10 +2084,10 @@
         <v>61</v>
       </c>
       <c r="AH15">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AI15">
-        <v>50.4</v>
+        <v>44.8</v>
       </c>
       <c r="AJ15" t="s">
         <v>73</v>
@@ -2099,18 +2099,18 @@
         <v>77</v>
       </c>
       <c r="AM15">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>2313</v>
+        <v>3485</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -2122,58 +2122,58 @@
         <v>54</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I16" t="s">
         <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M16">
-        <v>47.8</v>
+        <v>46.8</v>
       </c>
       <c r="N16">
-        <v>15.8</v>
+        <v>10</v>
       </c>
       <c r="O16">
-        <v>31.1</v>
+        <v>16.8</v>
       </c>
       <c r="P16">
-        <v>0.509</v>
+        <v>0.595</v>
       </c>
       <c r="T16">
-        <v>15.8</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>31.1</v>
+        <v>16.8</v>
       </c>
       <c r="V16">
-        <v>0.509</v>
+        <v>0.595</v>
       </c>
       <c r="W16">
-        <v>0.509</v>
+        <v>0.595</v>
       </c>
       <c r="X16">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="Y16">
-        <v>13.3</v>
+        <v>11.4</v>
       </c>
       <c r="Z16">
-        <v>0.504</v>
+        <v>0.38</v>
       </c>
       <c r="AC16">
-        <v>27.2</v>
+        <v>23.8</v>
       </c>
       <c r="AD16">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="AE16" t="s">
         <v>61</v>
@@ -2182,10 +2182,10 @@
         <v>61</v>
       </c>
       <c r="AH16">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AI16">
-        <v>38.4</v>
+        <v>24.3</v>
       </c>
       <c r="AJ16" t="s">
         <v>74</v>
@@ -2197,18 +2197,18 @@
         <v>77</v>
       </c>
       <c r="AM16">
-        <v>1961</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>2209</v>
+        <v>4757</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
       </c>
       <c r="C17">
-        <v>699</v>
+        <v>5224</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -2220,58 +2220,58 @@
         <v>54</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>46.4</v>
+        <v>44.3</v>
       </c>
       <c r="N17">
-        <v>14.8</v>
+        <v>8.1</v>
       </c>
       <c r="O17">
-        <v>32.1</v>
+        <v>15</v>
       </c>
       <c r="P17">
-        <v>0.461</v>
+        <v>0.545</v>
       </c>
       <c r="T17">
-        <v>14.8</v>
+        <v>8.1</v>
       </c>
       <c r="U17">
-        <v>32.1</v>
+        <v>15</v>
       </c>
       <c r="V17">
-        <v>0.461</v>
+        <v>0.545</v>
       </c>
       <c r="W17">
-        <v>0.461</v>
+        <v>0.545</v>
       </c>
       <c r="X17">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="Y17">
-        <v>13.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z17">
-        <v>0.582</v>
+        <v>0.538</v>
       </c>
       <c r="AC17">
-        <v>27</v>
+        <v>18.2</v>
       </c>
       <c r="AD17">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="AE17" t="s">
         <v>61</v>
@@ -2283,7 +2283,7 @@
         <v>2.1</v>
       </c>
       <c r="AI17">
-        <v>37.6</v>
+        <v>20.7</v>
       </c>
       <c r="AJ17" t="s">
         <v>75</v>
@@ -2295,7 +2295,7 @@
         <v>77</v>
       </c>
       <c r="AM17">
-        <v>1960</v>
+        <v>1971</v>
       </c>
     </row>
   </sheetData>

--- a/wilt_chamberlain_per_game_averages.xlsx
+++ b/wilt_chamberlain_per_game_averages.xlsx
@@ -133,48 +133,48 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>1970</t>
+  </si>
+  <si>
     <t>1965</t>
   </si>
   <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
     <t>1972</t>
   </si>
   <si>
-    <t>1970</t>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1968</t>
   </si>
   <si>
     <t>1964</t>
   </si>
   <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
     <t>Wilt Chamberlain</t>
   </si>
   <si>
@@ -184,64 +184,64 @@
     <t>NBA</t>
   </si>
   <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
     <t>PHI</t>
   </si>
   <si>
     <t>SFW</t>
   </si>
   <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>TOT</t>
-  </si>
-  <si>
     <t>PHW</t>
   </si>
   <si>
     <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
+    <t>1969-70</t>
+  </si>
+  <si>
     <t>1964-65</t>
   </si>
   <si>
+    <t>1966-67</t>
+  </si>
+  <si>
+    <t>1970-71</t>
+  </si>
+  <si>
+    <t>1965-66</t>
+  </si>
+  <si>
     <t>1971-72</t>
   </si>
   <si>
-    <t>1969-70</t>
+    <t>1962-63</t>
+  </si>
+  <si>
+    <t>1972-73</t>
+  </si>
+  <si>
+    <t>1968-69</t>
+  </si>
+  <si>
+    <t>1960-62</t>
+  </si>
+  <si>
+    <t>1960-61</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
+    <t>1967-68</t>
   </si>
   <si>
     <t>1963-64</t>
-  </si>
-  <si>
-    <t>1972-73</t>
-  </si>
-  <si>
-    <t>1968-69</t>
-  </si>
-  <si>
-    <t>1959-60</t>
-  </si>
-  <si>
-    <t>1960-62</t>
-  </si>
-  <si>
-    <t>1960-61</t>
-  </si>
-  <si>
-    <t>1965-66</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
-    <t>1962-63</t>
-  </si>
-  <si>
-    <t>1967-68</t>
-  </si>
-  <si>
-    <t>1970-71</t>
   </si>
   <si>
     <t>Yes</t>
@@ -732,13 +732,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>2850</v>
+        <v>4312</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -750,10 +750,10 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -762,46 +762,46 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>44.5</v>
+        <v>42.1</v>
       </c>
       <c r="N2">
-        <v>12.2</v>
+        <v>10.8</v>
       </c>
       <c r="O2">
-        <v>23.1</v>
+        <v>18.9</v>
       </c>
       <c r="P2">
-        <v>0.528</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="T2">
-        <v>12.2</v>
+        <v>10.8</v>
       </c>
       <c r="U2">
-        <v>23.1</v>
+        <v>18.9</v>
       </c>
       <c r="V2">
-        <v>0.528</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="W2">
-        <v>0.528</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="X2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y2">
-        <v>10.9</v>
+        <v>13.1</v>
       </c>
       <c r="Z2">
-        <v>0.526</v>
+        <v>0.446</v>
       </c>
       <c r="AC2">
-        <v>22.3</v>
+        <v>18.4</v>
       </c>
       <c r="AD2">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AE2" t="s">
         <v>61</v>
@@ -810,10 +810,10 @@
         <v>61</v>
       </c>
       <c r="AH2">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI2">
-        <v>30.1</v>
+        <v>27.3</v>
       </c>
       <c r="AJ2" t="s">
         <v>62</v>
@@ -825,18 +825,18 @@
         <v>77</v>
       </c>
       <c r="AM2">
-        <v>1965</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -860,46 +860,46 @@
         <v>57</v>
       </c>
       <c r="K3">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="M3">
-        <v>45.9</v>
+        <v>45.2</v>
       </c>
       <c r="N3">
-        <v>16.7</v>
+        <v>14.6</v>
       </c>
       <c r="O3">
-        <v>33.6</v>
+        <v>28.5</v>
       </c>
       <c r="P3">
-        <v>0.499</v>
+        <v>0.51</v>
       </c>
       <c r="T3">
-        <v>16.7</v>
+        <v>14.6</v>
       </c>
       <c r="U3">
-        <v>33.6</v>
+        <v>28.5</v>
       </c>
       <c r="V3">
-        <v>0.499</v>
+        <v>0.51</v>
       </c>
       <c r="W3">
-        <v>0.499</v>
+        <v>0.51</v>
       </c>
       <c r="X3">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y3">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="Z3">
-        <v>0.416</v>
+        <v>0.464</v>
       </c>
       <c r="AC3">
-        <v>23.5</v>
+        <v>22.9</v>
       </c>
       <c r="AD3">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AE3" t="s">
         <v>61</v>
@@ -911,10 +911,10 @@
         <v>2</v>
       </c>
       <c r="AI3">
-        <v>38.9</v>
+        <v>34.7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s">
         <v>76</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>5218</v>
+        <v>3118</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
@@ -946,10 +946,10 @@
         <v>54</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
         <v>55</v>
@@ -958,46 +958,46 @@
         <v>58</v>
       </c>
       <c r="K4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M4">
-        <v>42.3</v>
+        <v>45.5</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O4">
-        <v>9.300000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="P4">
-        <v>0.649</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="U4">
-        <v>9.300000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="V4">
-        <v>0.649</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="W4">
-        <v>0.649</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="X4">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4">
-        <v>6.4</v>
+        <v>10.8</v>
       </c>
       <c r="Z4">
-        <v>0.422</v>
+        <v>0.441</v>
       </c>
       <c r="AC4">
-        <v>19.2</v>
+        <v>24.2</v>
       </c>
       <c r="AD4">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="AE4" t="s">
         <v>61</v>
@@ -1006,13 +1006,13 @@
         <v>61</v>
       </c>
       <c r="AH4">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AI4">
-        <v>14.8</v>
+        <v>24.1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s">
         <v>76</v>
@@ -1021,18 +1021,18 @@
         <v>77</v>
       </c>
       <c r="AM4">
-        <v>1972</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>4312</v>
+        <v>2849</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -1044,58 +1044,58 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="M5">
-        <v>42.1</v>
+        <v>45.9</v>
       </c>
       <c r="N5">
-        <v>10.8</v>
+        <v>16.7</v>
       </c>
       <c r="O5">
-        <v>18.9</v>
+        <v>33.6</v>
       </c>
       <c r="P5">
-        <v>0.5679999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="T5">
-        <v>10.8</v>
+        <v>16.7</v>
       </c>
       <c r="U5">
-        <v>18.9</v>
+        <v>33.6</v>
       </c>
       <c r="V5">
-        <v>0.5679999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="W5">
-        <v>0.5679999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="X5">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Y5">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="Z5">
-        <v>0.446</v>
+        <v>0.416</v>
       </c>
       <c r="AC5">
-        <v>18.4</v>
+        <v>23.5</v>
       </c>
       <c r="AD5">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="AE5" t="s">
         <v>61</v>
@@ -1104,13 +1104,13 @@
         <v>61</v>
       </c>
       <c r="AH5">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AI5">
-        <v>27.3</v>
+        <v>38.9</v>
       </c>
       <c r="AJ5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s">
         <v>76</v>
@@ -1119,18 +1119,18 @@
         <v>77</v>
       </c>
       <c r="AM5">
-        <v>1970</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>2718</v>
+        <v>2850</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -1142,58 +1142,58 @@
         <v>54</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>46.1</v>
+        <v>44.5</v>
       </c>
       <c r="N6">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="O6">
-        <v>28.7</v>
+        <v>23.1</v>
       </c>
       <c r="P6">
-        <v>0.524</v>
+        <v>0.528</v>
       </c>
       <c r="T6">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="U6">
-        <v>28.7</v>
+        <v>23.1</v>
       </c>
       <c r="V6">
-        <v>0.524</v>
+        <v>0.528</v>
       </c>
       <c r="W6">
-        <v>0.524</v>
+        <v>0.528</v>
       </c>
       <c r="X6">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y6">
-        <v>12.7</v>
+        <v>10.9</v>
       </c>
       <c r="Z6">
-        <v>0.531</v>
+        <v>0.526</v>
       </c>
       <c r="AC6">
         <v>22.3</v>
       </c>
       <c r="AD6">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="AE6" t="s">
         <v>61</v>
@@ -1202,13 +1202,13 @@
         <v>61</v>
       </c>
       <c r="AH6">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AI6">
-        <v>36.9</v>
+        <v>30.1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s">
         <v>76</v>
@@ -1217,18 +1217,18 @@
         <v>77</v>
       </c>
       <c r="AM6">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>2848</v>
+        <v>4757</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -1240,58 +1240,58 @@
         <v>54</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M7">
-        <v>45.2</v>
+        <v>44.3</v>
       </c>
       <c r="N7">
-        <v>14.6</v>
+        <v>8.1</v>
       </c>
       <c r="O7">
-        <v>28.5</v>
+        <v>15</v>
       </c>
       <c r="P7">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="T7">
-        <v>14.6</v>
+        <v>8.1</v>
       </c>
       <c r="U7">
-        <v>28.5</v>
+        <v>15</v>
       </c>
       <c r="V7">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="W7">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="X7">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y7">
-        <v>12.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.464</v>
+        <v>0.538</v>
       </c>
       <c r="AC7">
-        <v>22.9</v>
+        <v>18.2</v>
       </c>
       <c r="AD7">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="AE7" t="s">
         <v>61</v>
@@ -1300,13 +1300,13 @@
         <v>61</v>
       </c>
       <c r="AH7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI7">
-        <v>34.7</v>
+        <v>20.7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="s">
         <v>76</v>
@@ -1315,18 +1315,18 @@
         <v>77</v>
       </c>
       <c r="AM7">
-        <v>1965</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>5645</v>
+        <v>2984</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -1338,10 +1338,10 @@
         <v>54</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
@@ -1350,47 +1350,47 @@
         <v>58</v>
       </c>
       <c r="K8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M8">
-        <v>43.2</v>
+        <v>47.3</v>
       </c>
       <c r="N8">
+        <v>13.6</v>
+      </c>
+      <c r="O8">
+        <v>25.2</v>
+      </c>
+      <c r="P8">
+        <v>0.54</v>
+      </c>
+      <c r="T8">
+        <v>13.6</v>
+      </c>
+      <c r="U8">
+        <v>25.2</v>
+      </c>
+      <c r="V8">
+        <v>0.54</v>
+      </c>
+      <c r="W8">
+        <v>0.54</v>
+      </c>
+      <c r="X8">
+        <v>6.3</v>
+      </c>
+      <c r="Y8">
+        <v>12.4</v>
+      </c>
+      <c r="Z8">
+        <v>0.513</v>
+      </c>
+      <c r="AC8">
+        <v>24.6</v>
+      </c>
+      <c r="AD8">
         <v>5.2</v>
       </c>
-      <c r="O8">
-        <v>7.1</v>
-      </c>
-      <c r="P8">
-        <v>0.727</v>
-      </c>
-      <c r="T8">
-        <v>5.2</v>
-      </c>
-      <c r="U8">
-        <v>7.1</v>
-      </c>
-      <c r="V8">
-        <v>0.727</v>
-      </c>
-      <c r="W8">
-        <v>0.727</v>
-      </c>
-      <c r="X8">
-        <v>2.8</v>
-      </c>
-      <c r="Y8">
-        <v>5.5</v>
-      </c>
-      <c r="Z8">
-        <v>0.51</v>
-      </c>
-      <c r="AC8">
-        <v>18.6</v>
-      </c>
-      <c r="AD8">
-        <v>4.5</v>
-      </c>
       <c r="AE8" t="s">
         <v>61</v>
       </c>
@@ -1398,10 +1398,10 @@
         <v>61</v>
       </c>
       <c r="AH8">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AI8">
-        <v>13.2</v>
+        <v>33.5</v>
       </c>
       <c r="AJ8" t="s">
         <v>66</v>
@@ -1413,18 +1413,18 @@
         <v>77</v>
       </c>
       <c r="AM8">
-        <v>1973</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>3901</v>
+        <v>5218</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
       <c r="C9">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
@@ -1436,58 +1436,58 @@
         <v>54</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9">
-        <v>45.3</v>
+        <v>42.3</v>
       </c>
       <c r="N9">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>13.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P9">
-        <v>0.583</v>
+        <v>0.649</v>
       </c>
       <c r="T9">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>13.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="V9">
-        <v>0.583</v>
+        <v>0.649</v>
       </c>
       <c r="W9">
-        <v>0.583</v>
+        <v>0.649</v>
       </c>
       <c r="X9">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="Y9">
-        <v>10.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z9">
-        <v>0.446</v>
+        <v>0.422</v>
       </c>
       <c r="AC9">
-        <v>21.1</v>
+        <v>19.2</v>
       </c>
       <c r="AD9">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="s">
         <v>61</v>
@@ -1496,10 +1496,10 @@
         <v>61</v>
       </c>
       <c r="AH9">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AI9">
-        <v>20.5</v>
+        <v>14.8</v>
       </c>
       <c r="AJ9" t="s">
         <v>67</v>
@@ -1511,18 +1511,18 @@
         <v>77</v>
       </c>
       <c r="AM9">
-        <v>1969</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>2209</v>
+        <v>2580</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -1534,58 +1534,58 @@
         <v>54</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
         <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M10">
-        <v>46.4</v>
+        <v>47.6</v>
       </c>
       <c r="N10">
-        <v>14.8</v>
+        <v>18.3</v>
       </c>
       <c r="O10">
-        <v>32.1</v>
+        <v>34.6</v>
       </c>
       <c r="P10">
-        <v>0.461</v>
+        <v>0.528</v>
       </c>
       <c r="T10">
-        <v>14.8</v>
+        <v>18.3</v>
       </c>
       <c r="U10">
-        <v>32.1</v>
+        <v>34.6</v>
       </c>
       <c r="V10">
-        <v>0.461</v>
+        <v>0.528</v>
       </c>
       <c r="W10">
-        <v>0.461</v>
+        <v>0.528</v>
       </c>
       <c r="X10">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y10">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="Z10">
-        <v>0.582</v>
+        <v>0.593</v>
       </c>
       <c r="AC10">
-        <v>27</v>
+        <v>24.3</v>
       </c>
       <c r="AD10">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE10" t="s">
         <v>61</v>
@@ -1594,10 +1594,10 @@
         <v>61</v>
       </c>
       <c r="AH10">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AI10">
-        <v>37.6</v>
+        <v>44.8</v>
       </c>
       <c r="AJ10" t="s">
         <v>68</v>
@@ -1609,18 +1609,18 @@
         <v>77</v>
       </c>
       <c r="AM10">
-        <v>1960</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>2445</v>
+        <v>5645</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -1632,58 +1632,58 @@
         <v>54</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M11">
-        <v>48.5</v>
+        <v>43.2</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>5.2</v>
       </c>
       <c r="O11">
-        <v>39.5</v>
+        <v>7.1</v>
       </c>
       <c r="P11">
-        <v>0.506</v>
+        <v>0.727</v>
       </c>
       <c r="T11">
-        <v>20</v>
+        <v>5.2</v>
       </c>
       <c r="U11">
-        <v>39.5</v>
+        <v>7.1</v>
       </c>
       <c r="V11">
-        <v>0.506</v>
+        <v>0.727</v>
       </c>
       <c r="W11">
-        <v>0.506</v>
+        <v>0.727</v>
       </c>
       <c r="X11">
-        <v>10.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y11">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Z11">
-        <v>0.613</v>
+        <v>0.51</v>
       </c>
       <c r="AC11">
-        <v>25.7</v>
+        <v>18.6</v>
       </c>
       <c r="AD11">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="AE11" t="s">
         <v>61</v>
@@ -1692,10 +1692,10 @@
         <v>61</v>
       </c>
       <c r="AH11">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="AI11">
-        <v>50.4</v>
+        <v>13.2</v>
       </c>
       <c r="AJ11" t="s">
         <v>69</v>
@@ -1707,18 +1707,18 @@
         <v>77</v>
       </c>
       <c r="AM11">
-        <v>1962</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>2313</v>
+        <v>3901</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -1730,58 +1730,58 @@
         <v>54</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
         <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M12">
-        <v>47.8</v>
+        <v>45.3</v>
       </c>
       <c r="N12">
-        <v>15.8</v>
+        <v>7.9</v>
       </c>
       <c r="O12">
-        <v>31.1</v>
+        <v>13.6</v>
       </c>
       <c r="P12">
-        <v>0.509</v>
+        <v>0.583</v>
       </c>
       <c r="T12">
-        <v>15.8</v>
+        <v>7.9</v>
       </c>
       <c r="U12">
-        <v>31.1</v>
+        <v>13.6</v>
       </c>
       <c r="V12">
-        <v>0.509</v>
+        <v>0.583</v>
       </c>
       <c r="W12">
-        <v>0.509</v>
+        <v>0.583</v>
       </c>
       <c r="X12">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="Y12">
-        <v>13.3</v>
+        <v>10.6</v>
       </c>
       <c r="Z12">
-        <v>0.504</v>
+        <v>0.446</v>
       </c>
       <c r="AC12">
-        <v>27.2</v>
+        <v>21.1</v>
       </c>
       <c r="AD12">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="AE12" t="s">
         <v>61</v>
@@ -1790,10 +1790,10 @@
         <v>61</v>
       </c>
       <c r="AH12">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AI12">
-        <v>38.4</v>
+        <v>20.5</v>
       </c>
       <c r="AJ12" t="s">
         <v>70</v>
@@ -1805,18 +1805,18 @@
         <v>77</v>
       </c>
       <c r="AM12">
-        <v>1961</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>2984</v>
+        <v>2445</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -1828,58 +1828,58 @@
         <v>54</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
         <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>47.3</v>
+        <v>48.5</v>
       </c>
       <c r="N13">
-        <v>13.6</v>
+        <v>20</v>
       </c>
       <c r="O13">
-        <v>25.2</v>
+        <v>39.5</v>
       </c>
       <c r="P13">
-        <v>0.54</v>
+        <v>0.506</v>
       </c>
       <c r="T13">
-        <v>13.6</v>
+        <v>20</v>
       </c>
       <c r="U13">
-        <v>25.2</v>
+        <v>39.5</v>
       </c>
       <c r="V13">
-        <v>0.54</v>
+        <v>0.506</v>
       </c>
       <c r="W13">
-        <v>0.54</v>
+        <v>0.506</v>
       </c>
       <c r="X13">
-        <v>6.3</v>
+        <v>10.4</v>
       </c>
       <c r="Y13">
-        <v>12.4</v>
+        <v>17</v>
       </c>
       <c r="Z13">
-        <v>0.513</v>
+        <v>0.613</v>
       </c>
       <c r="AC13">
-        <v>24.6</v>
+        <v>25.7</v>
       </c>
       <c r="AD13">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="AE13" t="s">
         <v>61</v>
@@ -1888,10 +1888,10 @@
         <v>61</v>
       </c>
       <c r="AH13">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AI13">
-        <v>33.5</v>
+        <v>50.4</v>
       </c>
       <c r="AJ13" t="s">
         <v>71</v>
@@ -1903,18 +1903,18 @@
         <v>77</v>
       </c>
       <c r="AM13">
-        <v>1966</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>3118</v>
+        <v>2313</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -1926,58 +1926,58 @@
         <v>54</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>45.5</v>
+        <v>47.8</v>
       </c>
       <c r="N14">
-        <v>9.699999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="O14">
-        <v>14.2</v>
+        <v>31.1</v>
       </c>
       <c r="P14">
-        <v>0.6830000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="T14">
-        <v>9.699999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="U14">
-        <v>14.2</v>
+        <v>31.1</v>
       </c>
       <c r="V14">
-        <v>0.6830000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="W14">
-        <v>0.6830000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="X14">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y14">
-        <v>10.8</v>
+        <v>13.3</v>
       </c>
       <c r="Z14">
-        <v>0.441</v>
+        <v>0.504</v>
       </c>
       <c r="AC14">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="AD14">
-        <v>7.8</v>
+        <v>1.9</v>
       </c>
       <c r="AE14" t="s">
         <v>61</v>
@@ -1986,10 +1986,10 @@
         <v>61</v>
       </c>
       <c r="AH14">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AI14">
-        <v>24.1</v>
+        <v>38.4</v>
       </c>
       <c r="AJ14" t="s">
         <v>72</v>
@@ -2001,18 +2001,18 @@
         <v>77</v>
       </c>
       <c r="AM14">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>2580</v>
+        <v>2209</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="C15">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
@@ -2024,58 +2024,58 @@
         <v>54</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M15">
-        <v>47.6</v>
+        <v>46.4</v>
       </c>
       <c r="N15">
-        <v>18.3</v>
+        <v>14.8</v>
       </c>
       <c r="O15">
-        <v>34.6</v>
+        <v>32.1</v>
       </c>
       <c r="P15">
-        <v>0.528</v>
+        <v>0.461</v>
       </c>
       <c r="T15">
-        <v>18.3</v>
+        <v>14.8</v>
       </c>
       <c r="U15">
-        <v>34.6</v>
+        <v>32.1</v>
       </c>
       <c r="V15">
-        <v>0.528</v>
+        <v>0.461</v>
       </c>
       <c r="W15">
-        <v>0.528</v>
+        <v>0.461</v>
       </c>
       <c r="X15">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="Y15">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="Z15">
-        <v>0.593</v>
+        <v>0.582</v>
       </c>
       <c r="AC15">
-        <v>24.3</v>
+        <v>27</v>
       </c>
       <c r="AD15">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AE15" t="s">
         <v>61</v>
@@ -2084,10 +2084,10 @@
         <v>61</v>
       </c>
       <c r="AH15">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AI15">
-        <v>44.8</v>
+        <v>37.6</v>
       </c>
       <c r="AJ15" t="s">
         <v>73</v>
@@ -2099,7 +2099,7 @@
         <v>77</v>
       </c>
       <c r="AM15">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2110,7 +2110,7 @@
         <v>51</v>
       </c>
       <c r="C16">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -2131,7 +2131,7 @@
         <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K16">
         <v>82</v>
@@ -2202,13 +2202,13 @@
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>4757</v>
+        <v>2718</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
       </c>
       <c r="C17">
-        <v>5224</v>
+        <v>5231</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -2220,58 +2220,58 @@
         <v>54</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M17">
-        <v>44.3</v>
+        <v>46.1</v>
       </c>
       <c r="N17">
-        <v>8.1</v>
+        <v>15.1</v>
       </c>
       <c r="O17">
-        <v>15</v>
+        <v>28.7</v>
       </c>
       <c r="P17">
-        <v>0.545</v>
+        <v>0.524</v>
       </c>
       <c r="T17">
-        <v>8.1</v>
+        <v>15.1</v>
       </c>
       <c r="U17">
-        <v>15</v>
+        <v>28.7</v>
       </c>
       <c r="V17">
-        <v>0.545</v>
+        <v>0.524</v>
       </c>
       <c r="W17">
-        <v>0.545</v>
+        <v>0.524</v>
       </c>
       <c r="X17">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y17">
-        <v>8.199999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="Z17">
-        <v>0.538</v>
+        <v>0.531</v>
       </c>
       <c r="AC17">
-        <v>18.2</v>
+        <v>22.3</v>
       </c>
       <c r="AD17">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="s">
         <v>61</v>
@@ -2280,10 +2280,10 @@
         <v>61</v>
       </c>
       <c r="AH17">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AI17">
-        <v>20.7</v>
+        <v>36.9</v>
       </c>
       <c r="AJ17" t="s">
         <v>75</v>
@@ -2295,7 +2295,7 @@
         <v>77</v>
       </c>
       <c r="AM17">
-        <v>1971</v>
+        <v>1964</v>
       </c>
     </row>
   </sheetData>

--- a/wilt_chamberlain_per_game_averages.xlsx
+++ b/wilt_chamberlain_per_game_averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="77">
   <si>
     <t>seas_id</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>PHW</t>
-  </si>
-  <si>
-    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>1969-70</t>
@@ -803,12 +800,6 @@
       <c r="AD2">
         <v>4.1</v>
       </c>
-      <c r="AE2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
-      </c>
       <c r="AH2">
         <v>2.6</v>
       </c>
@@ -816,13 +807,13 @@
         <v>27.3</v>
       </c>
       <c r="AJ2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" t="s">
         <v>76</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>77</v>
       </c>
       <c r="AM2">
         <v>1970</v>
@@ -901,12 +892,6 @@
       <c r="AD3">
         <v>3.4</v>
       </c>
-      <c r="AE3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>61</v>
-      </c>
       <c r="AH3">
         <v>2</v>
       </c>
@@ -914,13 +899,13 @@
         <v>34.7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s">
         <v>76</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>77</v>
       </c>
       <c r="AM3">
         <v>1965</v>
@@ -999,12 +984,6 @@
       <c r="AD4">
         <v>7.8</v>
       </c>
-      <c r="AE4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>61</v>
-      </c>
       <c r="AH4">
         <v>1.8</v>
       </c>
@@ -1012,13 +991,13 @@
         <v>24.1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="s">
         <v>76</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>77</v>
       </c>
       <c r="AM4">
         <v>1967</v>
@@ -1097,12 +1076,6 @@
       <c r="AD5">
         <v>3.1</v>
       </c>
-      <c r="AE5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>61</v>
-      </c>
       <c r="AH5">
         <v>2</v>
       </c>
@@ -1110,13 +1083,13 @@
         <v>38.9</v>
       </c>
       <c r="AJ5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s">
         <v>76</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>77</v>
       </c>
       <c r="AM5">
         <v>1965</v>
@@ -1195,12 +1168,6 @@
       <c r="AD6">
         <v>3.8</v>
       </c>
-      <c r="AE6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>61</v>
-      </c>
       <c r="AH6">
         <v>2</v>
       </c>
@@ -1208,13 +1175,13 @@
         <v>30.1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL6" t="s">
         <v>76</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>77</v>
       </c>
       <c r="AM6">
         <v>1965</v>
@@ -1293,12 +1260,6 @@
       <c r="AD7">
         <v>4.3</v>
       </c>
-      <c r="AE7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>61</v>
-      </c>
       <c r="AH7">
         <v>2.1</v>
       </c>
@@ -1306,13 +1267,13 @@
         <v>20.7</v>
       </c>
       <c r="AJ7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="s">
         <v>76</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>77</v>
       </c>
       <c r="AM7">
         <v>1971</v>
@@ -1391,12 +1352,6 @@
       <c r="AD8">
         <v>5.2</v>
       </c>
-      <c r="AE8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>61</v>
-      </c>
       <c r="AH8">
         <v>2.2</v>
       </c>
@@ -1404,13 +1359,13 @@
         <v>33.5</v>
       </c>
       <c r="AJ8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL8" t="s">
         <v>76</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>77</v>
       </c>
       <c r="AM8">
         <v>1966</v>
@@ -1489,12 +1444,6 @@
       <c r="AD9">
         <v>4</v>
       </c>
-      <c r="AE9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>61</v>
-      </c>
       <c r="AH9">
         <v>2.4</v>
       </c>
@@ -1502,13 +1451,13 @@
         <v>14.8</v>
       </c>
       <c r="AJ9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL9" t="s">
         <v>76</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>77</v>
       </c>
       <c r="AM9">
         <v>1972</v>
@@ -1587,12 +1536,6 @@
       <c r="AD10">
         <v>3.4</v>
       </c>
-      <c r="AE10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>61</v>
-      </c>
       <c r="AH10">
         <v>1.7</v>
       </c>
@@ -1600,13 +1543,13 @@
         <v>44.8</v>
       </c>
       <c r="AJ10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s">
         <v>76</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>77</v>
       </c>
       <c r="AM10">
         <v>1963</v>
@@ -1685,12 +1628,6 @@
       <c r="AD11">
         <v>4.5</v>
       </c>
-      <c r="AE11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>61</v>
-      </c>
       <c r="AH11">
         <v>2.3</v>
       </c>
@@ -1698,13 +1635,13 @@
         <v>13.2</v>
       </c>
       <c r="AJ11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s">
         <v>76</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>77</v>
       </c>
       <c r="AM11">
         <v>1973</v>
@@ -1783,12 +1720,6 @@
       <c r="AD12">
         <v>4.5</v>
       </c>
-      <c r="AE12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>61</v>
-      </c>
       <c r="AH12">
         <v>1.8</v>
       </c>
@@ -1796,13 +1727,13 @@
         <v>20.5</v>
       </c>
       <c r="AJ12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s">
         <v>76</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>77</v>
       </c>
       <c r="AM12">
         <v>1969</v>
@@ -1881,12 +1812,6 @@
       <c r="AD13">
         <v>2.4</v>
       </c>
-      <c r="AE13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>61</v>
-      </c>
       <c r="AH13">
         <v>1.5</v>
       </c>
@@ -1894,13 +1819,13 @@
         <v>50.4</v>
       </c>
       <c r="AJ13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL13" t="s">
         <v>76</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>77</v>
       </c>
       <c r="AM13">
         <v>1962</v>
@@ -1979,12 +1904,6 @@
       <c r="AD14">
         <v>1.9</v>
       </c>
-      <c r="AE14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>61</v>
-      </c>
       <c r="AH14">
         <v>1.6</v>
       </c>
@@ -1992,13 +1911,13 @@
         <v>38.4</v>
       </c>
       <c r="AJ14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s">
         <v>76</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>77</v>
       </c>
       <c r="AM14">
         <v>1961</v>
@@ -2077,12 +1996,6 @@
       <c r="AD15">
         <v>2.3</v>
       </c>
-      <c r="AE15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>61</v>
-      </c>
       <c r="AH15">
         <v>2.1</v>
       </c>
@@ -2090,13 +2003,13 @@
         <v>37.6</v>
       </c>
       <c r="AJ15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s">
         <v>76</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>77</v>
       </c>
       <c r="AM15">
         <v>1960</v>
@@ -2175,12 +2088,6 @@
       <c r="AD16">
         <v>8.6</v>
       </c>
-      <c r="AE16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>61</v>
-      </c>
       <c r="AH16">
         <v>2</v>
       </c>
@@ -2188,13 +2095,13 @@
         <v>24.3</v>
       </c>
       <c r="AJ16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s">
         <v>76</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>77</v>
       </c>
       <c r="AM16">
         <v>1968</v>
@@ -2273,12 +2180,6 @@
       <c r="AD17">
         <v>5</v>
       </c>
-      <c r="AE17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>61</v>
-      </c>
       <c r="AH17">
         <v>2.3</v>
       </c>
@@ -2286,13 +2187,13 @@
         <v>36.9</v>
       </c>
       <c r="AJ17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK17" t="s">
         <v>75</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>76</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>77</v>
       </c>
       <c r="AM17">
         <v>1964</v>

--- a/wilt_chamberlain_per_game_averages.xlsx
+++ b/wilt_chamberlain_per_game_averages.xlsx
@@ -133,48 +133,48 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
     <t>1970</t>
   </si>
   <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1971</t>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1968</t>
   </si>
   <si>
     <t>1966</t>
   </si>
   <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
     <t>Wilt Chamberlain</t>
   </si>
   <si>
@@ -184,61 +184,61 @@
     <t>NBA</t>
   </si>
   <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PHW</t>
+  </si>
+  <si>
+    <t>SFW</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
     <t>TOT</t>
   </si>
   <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>SFW</t>
-  </si>
-  <si>
-    <t>PHW</t>
+    <t>1966-67</t>
+  </si>
+  <si>
+    <t>1960-61</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
+    <t>1960-62</t>
+  </si>
+  <si>
+    <t>1963-64</t>
+  </si>
+  <si>
+    <t>1972-73</t>
+  </si>
+  <si>
+    <t>1971-72</t>
+  </si>
+  <si>
+    <t>1970-71</t>
+  </si>
+  <si>
+    <t>1964-65</t>
+  </si>
+  <si>
+    <t>1962-63</t>
   </si>
   <si>
     <t>1969-70</t>
   </si>
   <si>
-    <t>1964-65</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
-    <t>1970-71</t>
+    <t>1968-69</t>
+  </si>
+  <si>
+    <t>1967-68</t>
   </si>
   <si>
     <t>1965-66</t>
-  </si>
-  <si>
-    <t>1971-72</t>
-  </si>
-  <si>
-    <t>1962-63</t>
-  </si>
-  <si>
-    <t>1972-73</t>
-  </si>
-  <si>
-    <t>1968-69</t>
-  </si>
-  <si>
-    <t>1960-62</t>
-  </si>
-  <si>
-    <t>1960-61</t>
-  </si>
-  <si>
-    <t>1959-60</t>
-  </si>
-  <si>
-    <t>1967-68</t>
-  </si>
-  <si>
-    <t>1963-64</t>
   </si>
   <si>
     <t>Yes</t>
@@ -729,13 +729,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>4312</v>
+        <v>3118</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -747,10 +747,10 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -759,52 +759,52 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M2">
-        <v>42.1</v>
+        <v>45.5</v>
       </c>
       <c r="N2">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O2">
+        <v>14.2</v>
+      </c>
+      <c r="P2">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="T2">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="U2">
+        <v>14.2</v>
+      </c>
+      <c r="V2">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="W2">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="X2">
+        <v>4.8</v>
+      </c>
+      <c r="Y2">
         <v>10.8</v>
       </c>
-      <c r="O2">
-        <v>18.9</v>
-      </c>
-      <c r="P2">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="T2">
-        <v>10.8</v>
-      </c>
-      <c r="U2">
-        <v>18.9</v>
-      </c>
-      <c r="V2">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="W2">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="X2">
-        <v>5.8</v>
-      </c>
-      <c r="Y2">
-        <v>13.1</v>
-      </c>
       <c r="Z2">
-        <v>0.446</v>
+        <v>0.441</v>
       </c>
       <c r="AC2">
-        <v>18.4</v>
+        <v>24.2</v>
       </c>
       <c r="AD2">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="AH2">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AI2">
-        <v>27.3</v>
+        <v>24.1</v>
       </c>
       <c r="AJ2" t="s">
         <v>61</v>
@@ -816,18 +816,18 @@
         <v>76</v>
       </c>
       <c r="AM2">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>2848</v>
+        <v>2313</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -839,10 +839,10 @@
         <v>54</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -851,52 +851,52 @@
         <v>57</v>
       </c>
       <c r="K3">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M3">
-        <v>45.2</v>
+        <v>47.8</v>
       </c>
       <c r="N3">
-        <v>14.6</v>
+        <v>15.8</v>
       </c>
       <c r="O3">
-        <v>28.5</v>
+        <v>31.1</v>
       </c>
       <c r="P3">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="T3">
-        <v>14.6</v>
+        <v>15.8</v>
       </c>
       <c r="U3">
-        <v>28.5</v>
+        <v>31.1</v>
       </c>
       <c r="V3">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="W3">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="X3">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y3">
-        <v>12.1</v>
+        <v>13.3</v>
       </c>
       <c r="Z3">
-        <v>0.464</v>
+        <v>0.504</v>
       </c>
       <c r="AC3">
-        <v>22.9</v>
+        <v>27.2</v>
       </c>
       <c r="AD3">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AI3">
-        <v>34.7</v>
+        <v>38.4</v>
       </c>
       <c r="AJ3" t="s">
         <v>62</v>
@@ -908,18 +908,18 @@
         <v>76</v>
       </c>
       <c r="AM3">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>3118</v>
+        <v>2209</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D4" t="s">
         <v>53</v>
@@ -931,64 +931,64 @@
         <v>54</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M4">
-        <v>45.5</v>
+        <v>46.4</v>
       </c>
       <c r="N4">
-        <v>9.699999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="O4">
-        <v>14.2</v>
+        <v>32.1</v>
       </c>
       <c r="P4">
-        <v>0.6830000000000001</v>
+        <v>0.461</v>
       </c>
       <c r="T4">
-        <v>9.699999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="U4">
-        <v>14.2</v>
+        <v>32.1</v>
       </c>
       <c r="V4">
-        <v>0.6830000000000001</v>
+        <v>0.461</v>
       </c>
       <c r="W4">
-        <v>0.6830000000000001</v>
+        <v>0.461</v>
       </c>
       <c r="X4">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="Y4">
-        <v>10.8</v>
+        <v>13.8</v>
       </c>
       <c r="Z4">
-        <v>0.441</v>
+        <v>0.582</v>
       </c>
       <c r="AC4">
-        <v>24.2</v>
+        <v>27</v>
       </c>
       <c r="AD4">
-        <v>7.8</v>
+        <v>2.3</v>
       </c>
       <c r="AH4">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AI4">
-        <v>24.1</v>
+        <v>37.6</v>
       </c>
       <c r="AJ4" t="s">
         <v>63</v>
@@ -1000,18 +1000,18 @@
         <v>76</v>
       </c>
       <c r="AM4">
-        <v>1967</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>2849</v>
+        <v>2445</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -1023,67 +1023,67 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>45.9</v>
+        <v>48.5</v>
       </c>
       <c r="N5">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="O5">
-        <v>33.6</v>
+        <v>39.5</v>
       </c>
       <c r="P5">
-        <v>0.499</v>
+        <v>0.506</v>
       </c>
       <c r="T5">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="U5">
-        <v>33.6</v>
+        <v>39.5</v>
       </c>
       <c r="V5">
-        <v>0.499</v>
+        <v>0.506</v>
       </c>
       <c r="W5">
-        <v>0.499</v>
+        <v>0.506</v>
       </c>
       <c r="X5">
-        <v>5.5</v>
+        <v>10.4</v>
       </c>
       <c r="Y5">
-        <v>13.2</v>
+        <v>17</v>
       </c>
       <c r="Z5">
-        <v>0.416</v>
+        <v>0.613</v>
       </c>
       <c r="AC5">
-        <v>23.5</v>
+        <v>25.7</v>
       </c>
       <c r="AD5">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AI5">
-        <v>38.9</v>
+        <v>50.4</v>
       </c>
       <c r="AJ5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s">
         <v>75</v>
@@ -1092,18 +1092,18 @@
         <v>76</v>
       </c>
       <c r="AM5">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>2850</v>
+        <v>2718</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -1115,10 +1115,10 @@
         <v>54</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
@@ -1127,55 +1127,55 @@
         <v>58</v>
       </c>
       <c r="K6">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M6">
-        <v>44.5</v>
+        <v>46.1</v>
       </c>
       <c r="N6">
-        <v>12.2</v>
+        <v>15.1</v>
       </c>
       <c r="O6">
-        <v>23.1</v>
+        <v>28.7</v>
       </c>
       <c r="P6">
-        <v>0.528</v>
+        <v>0.524</v>
       </c>
       <c r="T6">
-        <v>12.2</v>
+        <v>15.1</v>
       </c>
       <c r="U6">
-        <v>23.1</v>
+        <v>28.7</v>
       </c>
       <c r="V6">
-        <v>0.528</v>
+        <v>0.524</v>
       </c>
       <c r="W6">
-        <v>0.528</v>
+        <v>0.524</v>
       </c>
       <c r="X6">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y6">
-        <v>10.9</v>
+        <v>12.7</v>
       </c>
       <c r="Z6">
-        <v>0.526</v>
+        <v>0.531</v>
       </c>
       <c r="AC6">
         <v>22.3</v>
       </c>
       <c r="AD6">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AI6">
-        <v>30.1</v>
+        <v>36.9</v>
       </c>
       <c r="AJ6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="s">
         <v>75</v>
@@ -1184,18 +1184,18 @@
         <v>76</v>
       </c>
       <c r="AM6">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>4757</v>
+        <v>5645</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -1207,67 +1207,67 @@
         <v>54</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>82</v>
       </c>
       <c r="M7">
-        <v>44.3</v>
+        <v>43.2</v>
       </c>
       <c r="N7">
-        <v>8.1</v>
+        <v>5.2</v>
       </c>
       <c r="O7">
-        <v>15</v>
+        <v>7.1</v>
       </c>
       <c r="P7">
-        <v>0.545</v>
+        <v>0.727</v>
       </c>
       <c r="T7">
-        <v>8.1</v>
+        <v>5.2</v>
       </c>
       <c r="U7">
-        <v>15</v>
+        <v>7.1</v>
       </c>
       <c r="V7">
-        <v>0.545</v>
+        <v>0.727</v>
       </c>
       <c r="W7">
-        <v>0.545</v>
+        <v>0.727</v>
       </c>
       <c r="X7">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y7">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="Z7">
-        <v>0.538</v>
+        <v>0.51</v>
       </c>
       <c r="AC7">
-        <v>18.2</v>
+        <v>18.6</v>
       </c>
       <c r="AD7">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AH7">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AI7">
-        <v>20.7</v>
+        <v>13.2</v>
       </c>
       <c r="AJ7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s">
         <v>75</v>
@@ -1276,18 +1276,18 @@
         <v>76</v>
       </c>
       <c r="AM7">
-        <v>1971</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>2984</v>
+        <v>5218</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -1299,67 +1299,67 @@
         <v>54</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M8">
-        <v>47.3</v>
+        <v>42.3</v>
       </c>
       <c r="N8">
-        <v>13.6</v>
+        <v>6</v>
       </c>
       <c r="O8">
-        <v>25.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P8">
-        <v>0.54</v>
+        <v>0.649</v>
       </c>
       <c r="T8">
-        <v>13.6</v>
+        <v>6</v>
       </c>
       <c r="U8">
-        <v>25.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="V8">
-        <v>0.54</v>
+        <v>0.649</v>
       </c>
       <c r="W8">
-        <v>0.54</v>
+        <v>0.649</v>
       </c>
       <c r="X8">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="Y8">
-        <v>12.4</v>
+        <v>6.4</v>
       </c>
       <c r="Z8">
-        <v>0.513</v>
+        <v>0.422</v>
       </c>
       <c r="AC8">
-        <v>24.6</v>
+        <v>19.2</v>
       </c>
       <c r="AD8">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AH8">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AI8">
-        <v>33.5</v>
+        <v>14.8</v>
       </c>
       <c r="AJ8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="s">
         <v>75</v>
@@ -1368,18 +1368,18 @@
         <v>76</v>
       </c>
       <c r="AM8">
-        <v>1966</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>5218</v>
+        <v>4757</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
@@ -1391,67 +1391,67 @@
         <v>54</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <v>82</v>
       </c>
       <c r="M9">
-        <v>42.3</v>
+        <v>44.3</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="O9">
-        <v>9.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="P9">
-        <v>0.649</v>
+        <v>0.545</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="U9">
-        <v>9.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="V9">
-        <v>0.649</v>
+        <v>0.545</v>
       </c>
       <c r="W9">
-        <v>0.649</v>
+        <v>0.545</v>
       </c>
       <c r="X9">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="Y9">
-        <v>6.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.422</v>
+        <v>0.538</v>
       </c>
       <c r="AC9">
-        <v>19.2</v>
+        <v>18.2</v>
       </c>
       <c r="AD9">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AH9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AI9">
-        <v>14.8</v>
+        <v>20.7</v>
       </c>
       <c r="AJ9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK9" t="s">
         <v>75</v>
@@ -1460,18 +1460,18 @@
         <v>76</v>
       </c>
       <c r="AM9">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>2580</v>
+        <v>2850</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D10" t="s">
         <v>53</v>
@@ -1483,37 +1483,37 @@
         <v>54</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
         <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>47.6</v>
+        <v>44.5</v>
       </c>
       <c r="N10">
-        <v>18.3</v>
+        <v>12.2</v>
       </c>
       <c r="O10">
-        <v>34.6</v>
+        <v>23.1</v>
       </c>
       <c r="P10">
         <v>0.528</v>
       </c>
       <c r="T10">
-        <v>18.3</v>
+        <v>12.2</v>
       </c>
       <c r="U10">
-        <v>34.6</v>
+        <v>23.1</v>
       </c>
       <c r="V10">
         <v>0.528</v>
@@ -1522,28 +1522,28 @@
         <v>0.528</v>
       </c>
       <c r="X10">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="Y10">
-        <v>13.9</v>
+        <v>10.9</v>
       </c>
       <c r="Z10">
-        <v>0.593</v>
+        <v>0.526</v>
       </c>
       <c r="AC10">
-        <v>24.3</v>
+        <v>22.3</v>
       </c>
       <c r="AD10">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AH10">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AI10">
-        <v>44.8</v>
+        <v>30.1</v>
       </c>
       <c r="AJ10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AK10" t="s">
         <v>75</v>
@@ -1552,18 +1552,18 @@
         <v>76</v>
       </c>
       <c r="AM10">
-        <v>1963</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>5645</v>
+        <v>2580</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
@@ -1575,67 +1575,67 @@
         <v>54</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M11">
-        <v>43.2</v>
+        <v>47.6</v>
       </c>
       <c r="N11">
-        <v>5.2</v>
+        <v>18.3</v>
       </c>
       <c r="O11">
-        <v>7.1</v>
+        <v>34.6</v>
       </c>
       <c r="P11">
-        <v>0.727</v>
+        <v>0.528</v>
       </c>
       <c r="T11">
-        <v>5.2</v>
+        <v>18.3</v>
       </c>
       <c r="U11">
-        <v>7.1</v>
+        <v>34.6</v>
       </c>
       <c r="V11">
-        <v>0.727</v>
+        <v>0.528</v>
       </c>
       <c r="W11">
-        <v>0.727</v>
+        <v>0.528</v>
       </c>
       <c r="X11">
-        <v>2.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y11">
-        <v>5.5</v>
+        <v>13.9</v>
       </c>
       <c r="Z11">
-        <v>0.51</v>
+        <v>0.593</v>
       </c>
       <c r="AC11">
-        <v>18.6</v>
+        <v>24.3</v>
       </c>
       <c r="AD11">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH11">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AI11">
-        <v>13.2</v>
+        <v>44.8</v>
       </c>
       <c r="AJ11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="s">
         <v>75</v>
@@ -1644,18 +1644,18 @@
         <v>76</v>
       </c>
       <c r="AM11">
-        <v>1973</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>3901</v>
+        <v>2848</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D12" t="s">
         <v>53</v>
@@ -1667,64 +1667,64 @@
         <v>54</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
         <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M12">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="N12">
-        <v>7.9</v>
+        <v>14.6</v>
       </c>
       <c r="O12">
-        <v>13.6</v>
+        <v>28.5</v>
       </c>
       <c r="P12">
-        <v>0.583</v>
+        <v>0.51</v>
       </c>
       <c r="T12">
-        <v>7.9</v>
+        <v>14.6</v>
       </c>
       <c r="U12">
-        <v>13.6</v>
+        <v>28.5</v>
       </c>
       <c r="V12">
-        <v>0.583</v>
+        <v>0.51</v>
       </c>
       <c r="W12">
-        <v>0.583</v>
+        <v>0.51</v>
       </c>
       <c r="X12">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y12">
-        <v>10.6</v>
+        <v>12.1</v>
       </c>
       <c r="Z12">
-        <v>0.446</v>
+        <v>0.464</v>
       </c>
       <c r="AC12">
-        <v>21.1</v>
+        <v>22.9</v>
       </c>
       <c r="AD12">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AI12">
-        <v>20.5</v>
+        <v>34.7</v>
       </c>
       <c r="AJ12" t="s">
         <v>69</v>
@@ -1736,18 +1736,18 @@
         <v>76</v>
       </c>
       <c r="AM12">
-        <v>1969</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>2445</v>
+        <v>4312</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
@@ -1759,67 +1759,67 @@
         <v>54</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
         <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>48.5</v>
+        <v>42.1</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>10.8</v>
       </c>
       <c r="O13">
-        <v>39.5</v>
+        <v>18.9</v>
       </c>
       <c r="P13">
-        <v>0.506</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="T13">
-        <v>20</v>
+        <v>10.8</v>
       </c>
       <c r="U13">
-        <v>39.5</v>
+        <v>18.9</v>
       </c>
       <c r="V13">
-        <v>0.506</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="W13">
-        <v>0.506</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="X13">
-        <v>10.4</v>
+        <v>5.8</v>
       </c>
       <c r="Y13">
-        <v>17</v>
+        <v>13.1</v>
       </c>
       <c r="Z13">
-        <v>0.613</v>
+        <v>0.446</v>
       </c>
       <c r="AC13">
-        <v>25.7</v>
+        <v>18.4</v>
       </c>
       <c r="AD13">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="AH13">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AI13">
-        <v>50.4</v>
+        <v>27.3</v>
       </c>
       <c r="AJ13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK13" t="s">
         <v>75</v>
@@ -1828,18 +1828,18 @@
         <v>76</v>
       </c>
       <c r="AM13">
-        <v>1962</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>2313</v>
+        <v>3901</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -1851,67 +1851,67 @@
         <v>54</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14">
-        <v>47.8</v>
+        <v>45.3</v>
       </c>
       <c r="N14">
-        <v>15.8</v>
+        <v>7.9</v>
       </c>
       <c r="O14">
-        <v>31.1</v>
+        <v>13.6</v>
       </c>
       <c r="P14">
-        <v>0.509</v>
+        <v>0.583</v>
       </c>
       <c r="T14">
-        <v>15.8</v>
+        <v>7.9</v>
       </c>
       <c r="U14">
-        <v>31.1</v>
+        <v>13.6</v>
       </c>
       <c r="V14">
-        <v>0.509</v>
+        <v>0.583</v>
       </c>
       <c r="W14">
-        <v>0.509</v>
+        <v>0.583</v>
       </c>
       <c r="X14">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="Y14">
-        <v>13.3</v>
+        <v>10.6</v>
       </c>
       <c r="Z14">
-        <v>0.504</v>
+        <v>0.446</v>
       </c>
       <c r="AC14">
-        <v>27.2</v>
+        <v>21.1</v>
       </c>
       <c r="AD14">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="AH14">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AI14">
-        <v>38.4</v>
+        <v>20.5</v>
       </c>
       <c r="AJ14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK14" t="s">
         <v>75</v>
@@ -1920,18 +1920,18 @@
         <v>76</v>
       </c>
       <c r="AM14">
-        <v>1961</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>2209</v>
+        <v>3485</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
@@ -1943,67 +1943,67 @@
         <v>54</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
         <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>46.4</v>
+        <v>46.8</v>
       </c>
       <c r="N15">
-        <v>14.8</v>
+        <v>10</v>
       </c>
       <c r="O15">
-        <v>32.1</v>
+        <v>16.8</v>
       </c>
       <c r="P15">
-        <v>0.461</v>
+        <v>0.595</v>
       </c>
       <c r="T15">
-        <v>14.8</v>
+        <v>10</v>
       </c>
       <c r="U15">
-        <v>32.1</v>
+        <v>16.8</v>
       </c>
       <c r="V15">
-        <v>0.461</v>
+        <v>0.595</v>
       </c>
       <c r="W15">
-        <v>0.461</v>
+        <v>0.595</v>
       </c>
       <c r="X15">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="Y15">
-        <v>13.8</v>
+        <v>11.4</v>
       </c>
       <c r="Z15">
-        <v>0.582</v>
+        <v>0.38</v>
       </c>
       <c r="AC15">
-        <v>27</v>
+        <v>23.8</v>
       </c>
       <c r="AD15">
-        <v>2.3</v>
+        <v>8.6</v>
       </c>
       <c r="AH15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI15">
-        <v>37.6</v>
+        <v>24.3</v>
       </c>
       <c r="AJ15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s">
         <v>75</v>
@@ -2012,18 +2012,18 @@
         <v>76</v>
       </c>
       <c r="AM15">
-        <v>1960</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>3485</v>
+        <v>2984</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -2035,67 +2035,67 @@
         <v>54</v>
       </c>
       <c r="G16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
         <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>46.8</v>
+        <v>47.3</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>13.6</v>
       </c>
       <c r="O16">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="P16">
-        <v>0.595</v>
+        <v>0.54</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>13.6</v>
       </c>
       <c r="U16">
-        <v>16.8</v>
+        <v>25.2</v>
       </c>
       <c r="V16">
-        <v>0.595</v>
+        <v>0.54</v>
       </c>
       <c r="W16">
-        <v>0.595</v>
+        <v>0.54</v>
       </c>
       <c r="X16">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="Y16">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="Z16">
-        <v>0.38</v>
+        <v>0.513</v>
       </c>
       <c r="AC16">
-        <v>23.8</v>
+        <v>24.6</v>
       </c>
       <c r="AD16">
-        <v>8.6</v>
+        <v>5.2</v>
       </c>
       <c r="AH16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AI16">
-        <v>24.3</v>
+        <v>33.5</v>
       </c>
       <c r="AJ16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s">
         <v>75</v>
@@ -2104,18 +2104,18 @@
         <v>76</v>
       </c>
       <c r="AM16">
-        <v>1968</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>2718</v>
+        <v>2849</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -2127,67 +2127,67 @@
         <v>54</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="N17">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="O17">
-        <v>28.7</v>
+        <v>33.6</v>
       </c>
       <c r="P17">
-        <v>0.524</v>
+        <v>0.499</v>
       </c>
       <c r="T17">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="U17">
-        <v>28.7</v>
+        <v>33.6</v>
       </c>
       <c r="V17">
-        <v>0.524</v>
+        <v>0.499</v>
       </c>
       <c r="W17">
-        <v>0.524</v>
+        <v>0.499</v>
       </c>
       <c r="X17">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="Y17">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="Z17">
-        <v>0.531</v>
+        <v>0.416</v>
       </c>
       <c r="AC17">
-        <v>22.3</v>
+        <v>23.5</v>
       </c>
       <c r="AD17">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="AH17">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AI17">
-        <v>36.9</v>
+        <v>38.9</v>
       </c>
       <c r="AJ17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AK17" t="s">
         <v>75</v>
@@ -2196,7 +2196,7 @@
         <v>76</v>
       </c>
       <c r="AM17">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
   </sheetData>
